--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_33_7.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_33_7.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-91964.02466280501</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30789066.36991068</v>
+        <v>30430448.0982188</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.258836905122502e-10</v>
+        <v>130468.6631724004</v>
       </c>
     </row>
     <row r="11">
@@ -25877,49 +25879,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>414.3588981658848</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>329.8087073802583</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>174.0885230584365</v>
       </c>
       <c r="J44" t="n">
-        <v>181.0459045266863</v>
+        <v>100.9387195582597</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>100.0299464227919</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>86.82148686318186</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>64.61630209323863</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>61.00144891149961</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>71.0718992657024</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>95.50771753390021</v>
       </c>
       <c r="Q44" t="n">
-        <v>222.3056898744495</v>
+        <v>120.3816583481039</v>
       </c>
       <c r="R44" t="n">
-        <v>215.5855378141321</v>
+        <v>156.2970892917925</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>187.5123304152058</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>218.9641928127885</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>251.2701457598965</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25956,49 +25958,49 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>136.8385185906377</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>107.3582211803319</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>82.13536774255608</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>79.12633608862856</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>56.29524403393702</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>28.90545725697471</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>14.17891314335149</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>22.44423757443683</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>37.54182911310821</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>75.51914927829571</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>114.3252943440434</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>162.3030441088983</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>198.1292300623896</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>225.908158490674</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26035,49 +26037,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>167.5676055192152</v>
       </c>
       <c r="H46" t="n">
-        <v>162.2271725074396</v>
+        <v>158.4629941912556</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>142.7184689252781</v>
       </c>
       <c r="J46" t="n">
-        <v>126.9954214393961</v>
+        <v>97.06289100487388</v>
       </c>
       <c r="K46" t="n">
-        <v>129.0132581705354</v>
+        <v>79.82491575659759</v>
       </c>
       <c r="L46" t="n">
-        <v>134.8846762812383</v>
+        <v>71.94053294496764</v>
       </c>
       <c r="M46" t="n">
-        <v>138.9257839476051</v>
+        <v>72.56001021962938</v>
       </c>
       <c r="N46" t="n">
-        <v>127.6855444652332</v>
+        <v>62.89780050171086</v>
       </c>
       <c r="O46" t="n">
-        <v>138.4565384518428</v>
+        <v>78.61457070130248</v>
       </c>
       <c r="P46" t="n">
-        <v>137.7280040491476</v>
+        <v>86.52286261917671</v>
       </c>
       <c r="Q46" t="n">
-        <v>151.5050016294458</v>
+        <v>116.0532158724207</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>158.2569640235438</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>216.6383466748816</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>226.1366284787861</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>286.2959362379867</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.088665158022195e-11</v>
+        <v>225929.5111658693</v>
       </c>
     </row>
   </sheetData>
@@ -26353,7 +26355,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>25103.27901842995</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>156263.9586557467</v>
       </c>
     </row>
     <row r="4">
@@ -26509,7 +26511,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>5118.204831146673</v>
       </c>
     </row>
     <row r="6">
@@ -26561,7 +26563,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-136278.8844684634</v>
       </c>
     </row>
   </sheetData>
@@ -26777,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>234.7800381259942</v>
       </c>
     </row>
     <row r="4">
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>234.7800381259942</v>
       </c>
     </row>
     <row r="4">
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.9438393492502272</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>9.666094735508892</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>36.38736651196942</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>80.10718496842655</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>120.0599046221887</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>148.9449281068054</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>165.7299311340341</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>168.4116146850913</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>159.0263121559843</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>135.7252782213693</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>101.9240315263455</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>59.28844852233964</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>21.50773917103957</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>4.131656751342871</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.07550714794001816</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.5049985725728932</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>4.877223056164522</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>17.38701225744391</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>47.71129057803813</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>81.54619494042197</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>109.6489225228995</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>127.9551207786668</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>120.1520068700076</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>96.43257830122204</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>64.4626248077258</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>31.35420961992052</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>9.380126994939479</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>2.035498632431968</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.03322359030084825</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.423373839243596</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>3.764178316183975</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>12.73200600198015</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>29.93253043452224</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>49.18834241393778</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>62.94414333627064</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>66.36577372797568</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>64.78774396352233</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>59.84196775054031</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>51.20514142997091</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>35.45178575702513</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>19.03642735362569</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>7.378251362090667</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.808960949495364</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.02309311850419617</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
